--- a/Assets/Excel/StorageBag.xlsx
+++ b/Assets/Excel/StorageBag.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14970" windowHeight="6930"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="StotageBagData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
